--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/10,25/22,10,25 Ост КИ Поляков/Заказ Новое Время 27,10. Поляков№5.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/10,25/22,10,25 Ост КИ Поляков/Заказ Новое Время 27,10. Поляков№5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\10,25\22,10,25 Ост КИ Поляков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62DE39-253C-40B6-B815-FD7EE3B76A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA9F8B-6B84-4428-952A-38E1E326212C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1599,14 +1599,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J153" sqref="J153"/>
+      <pane ySplit="9" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -1747,7 +1747,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="str">
         <f t="shared" ref="A11:A42" si="0">RIGHT(D11,4)</f>
         <v>6415</v>
@@ -1778,7 +1778,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6333</v>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4558</v>
@@ -1862,7 +1862,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6978</v>
@@ -1886,7 +1886,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4561</v>
@@ -1910,7 +1910,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4574</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6769</v>
@@ -1964,7 +1964,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6861</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6340</v>
@@ -2020,7 +2020,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6341</v>
@@ -2046,7 +2046,7 @@
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6862</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4813</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6392</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5851</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6353</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6268</v>
@@ -2224,7 +2224,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7126</v>
@@ -2280,7 +2280,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6498</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7125</v>
@@ -2336,7 +2336,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2675</v>
@@ -2360,7 +2360,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2377,7 +2377,7 @@
       <c r="I33" s="46"/>
       <c r="J33" s="47"/>
     </row>
-    <row r="34" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7077</v>
@@ -2410,7 +2410,7 @@
       <c r="J34" s="67"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6602</v>
@@ -2466,7 +2466,7 @@
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6822</v>
@@ -2526,7 +2526,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5819</v>
@@ -2557,7 +2557,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6770</v>
@@ -2584,7 +2584,7 @@
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6768</v>
@@ -2611,7 +2611,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6762</v>
@@ -2638,7 +2638,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
         <f t="shared" ref="A43:A74" si="3">RIGHT(D43,4)</f>
         <v>6765</v>
@@ -2665,7 +2665,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6759</v>
@@ -2692,7 +2692,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7082</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6767</v>
@@ -2746,7 +2746,7 @@
       <c r="I46" s="14"/>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7070</v>
@@ -2770,7 +2770,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6661</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6069</v>
@@ -2952,7 +2952,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6764</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6829</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="J55" s="29"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7075</v>
@@ -3036,7 +3036,7 @@
       <c r="I56" s="14"/>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7073</v>
@@ -3062,7 +3062,7 @@
       <c r="I57" s="14"/>
       <c r="J57" s="29"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6761</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7080</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7066</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="59" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3171,7 +3171,7 @@
       <c r="I61" s="46"/>
       <c r="J61" s="47"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7001</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J62" s="76"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6527</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6550</v>
@@ -3257,7 +3257,7 @@
       <c r="I64" s="14"/>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6608</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="59" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3306,7 +3306,7 @@
       <c r="I66" s="46"/>
       <c r="J66" s="47"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6586</v>
@@ -3332,7 +3332,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7144</v>
@@ -3358,7 +3358,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7146</v>
@@ -3462,7 +3462,7 @@
       <c r="I72" s="14"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6666</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7173</v>
@@ -3546,7 +3546,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6773</v>
@@ -3604,7 +3604,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6683</v>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="str">
         <f t="shared" si="5"/>
         <v>5489</v>
@@ -3658,7 +3658,7 @@
       <c r="I79" s="14"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6787</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6701</v>
@@ -3778,7 +3778,7 @@
       <c r="I83" s="14"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6684</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="J84" s="29"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6689</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="J85" s="29"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7157</v>
@@ -3862,7 +3862,7 @@
       <c r="I86" s="14"/>
       <c r="J86" s="29"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7166</v>
@@ -3886,7 +3886,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7154</v>
@@ -3912,7 +3912,7 @@
       <c r="I88" s="14"/>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7169</v>
@@ -3938,7 +3938,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="29"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="str">
         <f t="shared" si="5"/>
         <v>5341</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="59" t="str">
         <f t="shared" si="5"/>
         <v>5544</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6790</v>
@@ -4052,7 +4052,7 @@
       <c r="I93" s="14"/>
       <c r="J93" s="72"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6791</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="J94" s="72"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6792</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="J95" s="72"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6564</v>
@@ -4134,7 +4134,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="72"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7238</v>
@@ -4160,7 +4160,7 @@
       <c r="I97" s="14"/>
       <c r="J97" s="72"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6565</v>
@@ -4186,7 +4186,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="72"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7240</v>
@@ -4212,7 +4212,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="72"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7236</v>
@@ -4266,7 +4266,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="72"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6793</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="J102" s="72"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6794</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="J103" s="72"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6665</v>
@@ -4348,7 +4348,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="72"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6795</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="J105" s="72"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="59" t="str">
         <f t="shared" si="5"/>
         <v>6796</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="J106" s="72"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="59" t="str">
         <f t="shared" ref="A107:A138" si="8">RIGHT(D107,4)</f>
         <v>6804</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="J107" s="72"/>
     </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6803</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="J108" s="72"/>
     </row>
-    <row r="109" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6807</v>
@@ -4491,7 +4491,7 @@
       <c r="J109" s="72"/>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4509,7 +4509,7 @@
       <c r="J110" s="47"/>
       <c r="K110" s="27"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5706</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5931</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="J112" s="67"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6834</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5708</v>
@@ -4743,7 +4743,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="str">
         <f t="shared" si="8"/>
         <v>4154</v>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6453</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6557</v>
@@ -5035,7 +5035,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6228</v>
@@ -5089,7 +5089,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="29"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="59" t="str">
         <f t="shared" si="8"/>
         <v>3287</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5136,7 +5136,7 @@
       <c r="I132" s="46"/>
       <c r="J132" s="47"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A133" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6866</v>
@@ -5160,7 +5160,7 @@
       <c r="I133" s="14"/>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="59" t="str">
         <f t="shared" si="8"/>
         <v>3215</v>
@@ -5268,7 +5268,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6472</v>
@@ -5292,7 +5292,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="29"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="59" t="str">
         <f t="shared" ref="A139:A147" si="9">RIGHT(D139,4)</f>
         <v>5452</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="J139" s="29"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="59" t="str">
         <f t="shared" si="9"/>
         <v>5495</v>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="J140" s="29"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6495</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J141" s="29"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="59" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5401,7 +5401,7 @@
       <c r="I142" s="46"/>
       <c r="J142" s="47"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A143" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6448</v>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="59" t="str">
         <f t="shared" si="9"/>
         <v>7090</v>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J144" s="29"/>
     </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6208</v>
@@ -5487,7 +5487,7 @@
       <c r="I145" s="14"/>
       <c r="J145" s="29"/>
     </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="59" t="str">
         <f t="shared" si="9"/>
         <v>7053</v>
@@ -5511,7 +5511,7 @@
       <c r="I146" s="14"/>
       <c r="J146" s="29"/>
     </row>
-    <row r="147" spans="1:11" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="71" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="59" t="str">
         <f t="shared" si="9"/>
         <v>7103</v>
@@ -20803,7 +20803,13 @@
       <c r="J1672" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:K148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:K148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
